--- a/Raw_SRB_data/Crizotinib_only/Crizotinib_assay_1.xlsx
+++ b/Raw_SRB_data/Crizotinib_only/Crizotinib_assay_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyal Dass\Documents\GitHub\PD_Lab_book\Daily_lab_book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyal Dass\Documents\GitHub\PD_Lab_book\Raw_SRB_data\Crizotinib_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1170,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="C49" s="4">
-        <f>B49/B48*C48</f>
+        <f>B49/0.8648*C48</f>
         <v>93.432007400555051</v>
       </c>
     </row>
@@ -1179,8 +1179,8 @@
         <v>0.75919999999999999</v>
       </c>
       <c r="C50" s="4">
-        <f>B50/B49*C49</f>
-        <v>87.789084181313598</v>
+        <f t="shared" ref="C50:C57" si="1">B50/0.8648*C49</f>
+        <v>82.023103629164424</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,8 +1188,8 @@
         <v>0.56220000000000003</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" ref="C50:C57" si="1">B51/B50*C50</f>
-        <v>65.009250693802031</v>
+        <f t="shared" si="1"/>
+        <v>53.322605065120534</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
-        <v>17.11378353376503</v>
+        <v>9.1255152054091582</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
-        <v>83.325624421831634</v>
+        <v>7.6038925266163737</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
-        <v>15.205827937095281</v>
+        <v>1.1562348141189329</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
-        <v>13.135985198889914</v>
+        <v>0.15188283404707537</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
-        <v>11.054579093432006</v>
+        <v>1.6790008019080021E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
-        <v>9.4588344125809414</v>
+        <v>1.5881390563838407E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
